--- a/medicine/Mort/Cimetière_Beechwood/Cimetière_Beechwood.xlsx
+++ b/medicine/Mort/Cimetière_Beechwood/Cimetière_Beechwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Beechwood</t>
+          <t>Cimetière_Beechwood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Beechwood est un cimetière national situé à Ottawa, au Canada. S'étendant sur 64,7 hectares, il s'agit du plus grand cimetière de la capitale. Plus de 82 000 Canadiens y sont enterrés, dont le gouverneur général Ramon Hnatyshyn et le premier ministre Robert Borden, ainsi que des membres du parlement, des militaires, des policiers et des joueurs de hockey célèbres.
-Créé en 1873, ce cimetière a été désigné lieu historique national du Canada en 2001. Le 5 mars 2009, le ministre Jim Prentice a présenté un projet de loi visant à désigner Beechwood comme Cimetière national du Canada. La Loi sur le cimetière national du Canada est adoptée le 6 mars et a reçoit la sanction royale le 23 avril 2009[1].
+Créé en 1873, ce cimetière a été désigné lieu historique national du Canada en 2001. Le 5 mars 2009, le ministre Jim Prentice a présenté un projet de loi visant à désigner Beechwood comme Cimetière national du Canada. La Loi sur le cimetière national du Canada est adoptée le 6 mars et a reçoit la sanction royale le 23 avril 2009.
 </t>
         </is>
       </c>
